--- a/data/trans_orig/P2A_senso_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10183</v>
+        <v>9918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01278840307605994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>0.003332442907654165</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0373004304790086</v>
+        <v>0.03632797038556104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8775</v>
+        <v>9789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01267983045378544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004068827455227336</v>
+        <v>0.004092728126388714</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03364215295372151</v>
+        <v>0.03752998237025235</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>6799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2601</v>
+        <v>2805</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14378</v>
+        <v>14794</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01273535450437952</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004872034098268181</v>
+        <v>0.0052549808396559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02693262502133666</v>
+        <v>0.02771117288402301</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>269519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262827</v>
+        <v>263092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>273010</v>
+        <v>272100</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9872115969239401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9626995695209914</v>
+        <v>0.9636720296144389</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1</v>
+        <v>0.9966675570923459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -836,19 +836,19 @@
         <v>257531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252063</v>
+        <v>251049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259777</v>
+        <v>259770</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9873201695462146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9663578470462786</v>
+        <v>0.9624700176297466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9959311725447726</v>
+        <v>0.9959072718736113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>510</v>
@@ -857,19 +857,19 @@
         <v>527049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>519470</v>
+        <v>519054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531247</v>
+        <v>531043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9872646454956204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9730673749786641</v>
+        <v>0.9722888271159782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9951279659017319</v>
+        <v>0.9947450191603441</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5893</v>
+        <v>6467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19872</v>
+        <v>20670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0237824987647385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01195156470026056</v>
+        <v>0.01311664725178887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04030149450052677</v>
+        <v>0.0419207184595423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -982,19 +982,19 @@
         <v>8239</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3265</v>
+        <v>4052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15259</v>
+        <v>16315</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0163492664528704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006479438065848432</v>
+        <v>0.008040660630773999</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0302794316197049</v>
+        <v>0.03237524037997512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1003,19 +1003,19 @@
         <v>19966</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11928</v>
+        <v>12465</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30328</v>
+        <v>31656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02002534768416542</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0119633708580797</v>
+        <v>0.01250197562994622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03041874133611516</v>
+        <v>0.03175022225509209</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>481348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473203</v>
+        <v>472405</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487182</v>
+        <v>486608</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9762175012352615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9596985054994734</v>
+        <v>0.9580792815404582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9880484352997395</v>
+        <v>0.9868833527482113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>491</v>
@@ -1053,19 +1053,19 @@
         <v>495710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488690</v>
+        <v>487634</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500684</v>
+        <v>499897</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9836507335471296</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9697205683802951</v>
+        <v>0.9676247596200254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9935205619341515</v>
+        <v>0.9919593393692261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>945</v>
@@ -1074,19 +1074,19 @@
         <v>977058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>966696</v>
+        <v>965368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>985096</v>
+        <v>984559</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9799746523158346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9695812586638849</v>
+        <v>0.9682497777449079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9880366291419204</v>
+        <v>0.9874980243700539</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4509</v>
+        <v>5547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003468138254157883</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01414317428311507</v>
+        <v>0.01739790988490567</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5356</v>
+        <v>4649</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002760411406031054</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01596978331700803</v>
+        <v>0.01385963185309533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6747</v>
+        <v>7289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003105314856735184</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01031169321462204</v>
+        <v>0.01114127243645701</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>317740</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314337</v>
+        <v>313299</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9965318617458421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858568257168849</v>
+        <v>0.9826020901150943</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>334486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330056</v>
+        <v>330763</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>335412</v>
@@ -1279,7 +1279,7 @@
         <v>0.997239588593969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.984030216682993</v>
+        <v>0.9861403681469046</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>652226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>647511</v>
+        <v>646969</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>654258</v>
@@ -1300,7 +1300,7 @@
         <v>0.9968946851432648</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9896883067853778</v>
+        <v>0.9888587275635428</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1395,19 +1395,19 @@
         <v>8823</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4096</v>
+        <v>4399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17161</v>
+        <v>16273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02459978136443885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01142115201762167</v>
+        <v>0.01226423824799689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04784484843326688</v>
+        <v>0.04536949395986681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>4789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1808</v>
+        <v>1889</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10330</v>
+        <v>11607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01289242465427949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004866237048150529</v>
+        <v>0.005085022936489633</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02780971808065277</v>
+        <v>0.03124704307229467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>13612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7676</v>
+        <v>8045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23097</v>
+        <v>22435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01864360247234093</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01051341138904651</v>
+        <v>0.01101843530169754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03163463932110083</v>
+        <v>0.03072756253426114</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341510</v>
+        <v>342398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354575</v>
+        <v>354272</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9754002186355611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.952155151566733</v>
+        <v>0.954630506040133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9885788479823782</v>
+        <v>0.9877357617520031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>379</v>
@@ -1487,19 +1487,19 @@
         <v>366667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>361126</v>
+        <v>359849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369648</v>
+        <v>369567</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9871075753457205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9721902819193476</v>
+        <v>0.9687529569277056</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951337629518495</v>
+        <v>0.9949149770635104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>732</v>
@@ -1508,19 +1508,19 @@
         <v>716515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707030</v>
+        <v>707692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>722451</v>
+        <v>722082</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9813563975276591</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9683653606788991</v>
+        <v>0.9692724374657389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9894865886109534</v>
+        <v>0.9889815646983025</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>6159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2707</v>
+        <v>2592</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12053</v>
+        <v>11766</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03029291303931802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01331424339650148</v>
+        <v>0.0127481709794299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0592824267142872</v>
+        <v>0.05787323946347137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1633,19 +1633,19 @@
         <v>10566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5365</v>
+        <v>5413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19199</v>
+        <v>18997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05088077433515706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02583368121410464</v>
+        <v>0.0260652866048498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09245271296561584</v>
+        <v>0.09147563245884414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1654,19 +1654,19 @@
         <v>16725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10202</v>
+        <v>9800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25927</v>
+        <v>25935</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0406960497214181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02482338485322405</v>
+        <v>0.02384632073331316</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06308605872194727</v>
+        <v>0.06310519481952816</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>197149</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191255</v>
+        <v>191542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200601</v>
+        <v>200716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.969707086960682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.940717573285713</v>
+        <v>0.9421267605365294</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9866857566034987</v>
+        <v>0.9872518290205704</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -1704,19 +1704,19 @@
         <v>197102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188469</v>
+        <v>188671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202303</v>
+        <v>202255</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.949119225664843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.907547287034384</v>
+        <v>0.9085243675411558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9741663187858953</v>
+        <v>0.9739347133951501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -1725,19 +1725,19 @@
         <v>394251</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385049</v>
+        <v>385041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400774</v>
+        <v>401176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.959303950278582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9369139412780527</v>
+        <v>0.9368948051804719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.975176615146776</v>
+        <v>0.9761536792666869</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6132</v>
+        <v>5127</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00376330013407128</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02264148529398166</v>
+        <v>0.01893231328304368</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4852</v>
+        <v>5719</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003427243117651541</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01744541204723809</v>
+        <v>0.02056079592936962</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6886</v>
+        <v>6959</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003593027084195823</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01254411014017827</v>
+        <v>0.01267597241006063</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>269792</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264679</v>
+        <v>265684</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1909,7 +1909,7 @@
         <v>0.9962366998659287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9773585147060182</v>
+        <v>0.9810676867169563</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>277191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>273292</v>
+        <v>272425</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278144</v>
@@ -1930,7 +1930,7 @@
         <v>0.9965727568823485</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.982554587952762</v>
+        <v>0.9794392040706306</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>546983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>542069</v>
+        <v>541996</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>548955</v>
@@ -1951,7 +1951,7 @@
         <v>0.9964069729158042</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9874558898598218</v>
+        <v>0.9873240275899393</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2046,19 +2046,19 @@
         <v>10261</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4810</v>
+        <v>5446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17799</v>
+        <v>18778</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01668308322237425</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007821412644595733</v>
+        <v>0.008854661739548349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0289402848747356</v>
+        <v>0.03053266194717652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2067,19 +2067,19 @@
         <v>11224</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5885</v>
+        <v>5976</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19565</v>
+        <v>20109</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01758639806603801</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009221060010361966</v>
+        <v>0.009363275194754262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03065631986676031</v>
+        <v>0.03150760046687864</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2088,19 +2088,19 @@
         <v>21485</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13637</v>
+        <v>13597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32353</v>
+        <v>32859</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01714309882299517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01088166771942732</v>
+        <v>0.01084917411860644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02581534675536589</v>
+        <v>0.0262194737694753</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>604766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>597228</v>
+        <v>596249</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>610217</v>
+        <v>609581</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9833169167776258</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.971059715125264</v>
+        <v>0.9694673380528233</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9921785873554041</v>
+        <v>0.9911453382604515</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>610</v>
@@ -2138,19 +2138,19 @@
         <v>626995</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>618654</v>
+        <v>618110</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>632334</v>
+        <v>632243</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.982413601933962</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9693436801332388</v>
+        <v>0.9684923995331213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.990778939989638</v>
+        <v>0.9906367248052457</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1198</v>
@@ -2159,19 +2159,19 @@
         <v>1231761</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1220893</v>
+        <v>1220387</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1239609</v>
+        <v>1239649</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9828569011770049</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.974184653244634</v>
+        <v>0.9737805262305244</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9891183322805727</v>
+        <v>0.9891508258813936</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>8129</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3809</v>
+        <v>3172</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15377</v>
+        <v>15541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01092855345005181</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005120385072730795</v>
+        <v>0.004264179872579476</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02067380225369879</v>
+        <v>0.02089485145107745</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2284,19 +2284,19 @@
         <v>16014</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9207</v>
+        <v>9389</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25917</v>
+        <v>25578</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02043844681348956</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01175067766826795</v>
+        <v>0.0119830499108164</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03307750892592996</v>
+        <v>0.03264554231123475</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2305,19 +2305,19 @@
         <v>24142</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15878</v>
+        <v>15100</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35967</v>
+        <v>36560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01580714742851719</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01039615061449486</v>
+        <v>0.009887005582250107</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02354934182341431</v>
+        <v>0.02393752479504326</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>735666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>728418</v>
+        <v>728254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>739986</v>
+        <v>740623</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9890714465499482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9793261977463013</v>
+        <v>0.9791051485489226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9948796149272692</v>
+        <v>0.9957358201274206</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>730</v>
@@ -2355,19 +2355,19 @@
         <v>767497</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>757594</v>
+        <v>757933</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>774304</v>
+        <v>774122</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9795615531865104</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9669224910740696</v>
+        <v>0.9673544576887654</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9882493223317319</v>
+        <v>0.9880169500891839</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1458</v>
@@ -2376,19 +2376,19 @@
         <v>1503164</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1491339</v>
+        <v>1490746</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1511428</v>
+        <v>1512206</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9841928525714828</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9764506581765856</v>
+        <v>0.9760624752049568</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9896038493855049</v>
+        <v>0.99011299441775</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>50714</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0154779089904101</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -2501,19 +2501,19 @@
         <v>56019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01657752320685429</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>104</v>
@@ -2522,19 +2522,19 @@
         <v>106733</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01603619598013469</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3225829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3210042</v>
+        <v>3208701</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3238574</v>
+        <v>3238357</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9845220910095899</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9797040148945682</v>
+        <v>0.9792947243819218</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9884118449048527</v>
+        <v>0.9883456387958707</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3243</v>
@@ -2572,19 +2572,19 @@
         <v>3323178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3306440</v>
+        <v>3307445</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3335922</v>
+        <v>3336017</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9834224767931458</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9784692756511651</v>
+        <v>0.9787665133212117</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9871937251572447</v>
+        <v>0.9872217682478264</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6407</v>
@@ -2593,19 +2593,19 @@
         <v>6549008</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6525693</v>
+        <v>6525595</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6568038</v>
+        <v>6567666</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9839638040198653</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9804607582091717</v>
+        <v>0.9804460413162313</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9868229763477762</v>
+        <v>0.9867670884587489</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>10441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4929</v>
+        <v>4865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18686</v>
+        <v>19265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03542490664903064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01672170327326497</v>
+        <v>0.01650477028772442</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06339879092204014</v>
+        <v>0.06536153771629521</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2962,19 +2962,19 @@
         <v>10453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5210</v>
+        <v>4912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19563</v>
+        <v>19566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03639205148915207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01813619856681015</v>
+        <v>0.01710083989161584</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06810590209932819</v>
+        <v>0.06811435982086765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2983,19 +2983,19 @@
         <v>20895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13006</v>
+        <v>12428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31577</v>
+        <v>31445</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03590225307505518</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02234718598656186</v>
+        <v>0.02135390301827331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05425823660857861</v>
+        <v>0.05403122638711182</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>284297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276052</v>
+        <v>275473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289809</v>
+        <v>289873</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9645750933509694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9366012090779592</v>
+        <v>0.9346384622837048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9832782967267348</v>
+        <v>0.9834952297122757</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>247</v>
@@ -3033,19 +3033,19 @@
         <v>276792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267682</v>
+        <v>267679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282035</v>
+        <v>282333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.963607948510848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9318940979006717</v>
+        <v>0.9318856401791317</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9818638014331897</v>
+        <v>0.982899160108384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -3054,19 +3054,19 @@
         <v>561088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>550406</v>
+        <v>550538</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>568977</v>
+        <v>569555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9640977469249449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9457417633914215</v>
+        <v>0.9459687736128882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9776528140134382</v>
+        <v>0.9786460969817268</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>7211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3069</v>
+        <v>3036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16780</v>
+        <v>15194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01426365742492238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006069936599990283</v>
+        <v>0.006005998348412055</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0331933421095993</v>
+        <v>0.03005592590394861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3179,19 +3179,19 @@
         <v>10159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5093</v>
+        <v>5128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18243</v>
+        <v>17562</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01939527367499467</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009723173887823575</v>
+        <v>0.009790235699784175</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03482971139725259</v>
+        <v>0.03352975387698619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -3200,19 +3200,19 @@
         <v>17369</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9947</v>
+        <v>10313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27702</v>
+        <v>28553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01687492840078549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009663595695225111</v>
+        <v>0.0100191491168415</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.026913474379742</v>
+        <v>0.02774029689439096</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>498316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488747</v>
+        <v>490333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502458</v>
+        <v>502491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9857363425750776</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9668066578904007</v>
+        <v>0.9699440740960513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9939300634000098</v>
+        <v>0.9939940016515879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -3250,19 +3250,19 @@
         <v>513606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>505522</v>
+        <v>506203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>518672</v>
+        <v>518637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9806047263250053</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9651702886027473</v>
+        <v>0.9664702461230129</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9902768261121765</v>
+        <v>0.9902097643002158</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>936</v>
@@ -3271,19 +3271,19 @@
         <v>1011923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1001590</v>
+        <v>1000739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1019345</v>
+        <v>1018979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9831250715992145</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9730865256202579</v>
+        <v>0.9722597031056087</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9903364043047748</v>
+        <v>0.9899808508831583</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>6170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14725</v>
+        <v>15532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01904135180656218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006348593754640131</v>
+        <v>0.006359303163273496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04544119652501524</v>
+        <v>0.04793035738889575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3396,19 +3396,19 @@
         <v>3910</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9691</v>
+        <v>9774</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01146548429321731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002868915416536643</v>
+        <v>0.002889797976977758</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02841882756185239</v>
+        <v>0.02866162512589153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3417,19 +3417,19 @@
         <v>10080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4917</v>
+        <v>4925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19495</v>
+        <v>19264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0151567413070064</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007392548650347899</v>
+        <v>0.007405936141112518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02931309183944438</v>
+        <v>0.02896498172170215</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>317876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309321</v>
+        <v>308514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321989</v>
+        <v>321985</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9809586481934378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9545588034749848</v>
+        <v>0.9520696426111039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9936514062453599</v>
+        <v>0.9936406968367265</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -3467,19 +3467,19 @@
         <v>337110</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331329</v>
+        <v>331246</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340042</v>
+        <v>340035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9885345157067826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9715811724381478</v>
+        <v>0.9713383748741086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9971310845834633</v>
+        <v>0.9971102020230223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -3488,19 +3488,19 @@
         <v>654986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645571</v>
+        <v>645802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>660149</v>
+        <v>660141</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9848432586929936</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9706869081605562</v>
+        <v>0.971035018278298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9926074513496521</v>
+        <v>0.9925940638588875</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>3397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10253</v>
+        <v>10046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009083097087079193</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002898325010798674</v>
+        <v>0.002917329508154703</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02741613610393404</v>
+        <v>0.02686248542295276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -3613,19 +3613,19 @@
         <v>12522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6276</v>
+        <v>6681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20993</v>
+        <v>21773</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03219376863448423</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01613585507416617</v>
+        <v>0.01717680743512917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05397328356666061</v>
+        <v>0.0559779186996173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3634,19 +3634,19 @@
         <v>15919</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9330</v>
+        <v>8547</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25390</v>
+        <v>26049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02086515056802671</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01222890236191787</v>
+        <v>0.01120322626744962</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03327943645931106</v>
+        <v>0.03414269642257893</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>370585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363729</v>
+        <v>363936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372898</v>
+        <v>372891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9909169029129208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.972583863896066</v>
+        <v>0.9731375145770464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9971016749892013</v>
+        <v>0.9970826704918453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -3684,19 +3684,19 @@
         <v>376429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367958</v>
+        <v>367178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382675</v>
+        <v>382270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9678062313655158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9460267164333394</v>
+        <v>0.9440220813003827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9838641449258332</v>
+        <v>0.9828231925648708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -3705,19 +3705,19 @@
         <v>747014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>737543</v>
+        <v>736884</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753603</v>
+        <v>754386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9791348494319733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9667205635406888</v>
+        <v>0.9658573035774212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9877710976380821</v>
+        <v>0.9887967737325504</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>15050</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8051</v>
+        <v>8520</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25075</v>
+        <v>25669</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07078574806922307</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03786564596156959</v>
+        <v>0.04007024463125212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1179350946625407</v>
+        <v>0.1207286025265091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3830,19 +3830,19 @@
         <v>12497</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6875</v>
+        <v>6701</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22348</v>
+        <v>22072</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05691185540967796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03130808947018887</v>
+        <v>0.03051593511864752</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1017704864564978</v>
+        <v>0.1005119745849617</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -3851,19 +3851,19 @@
         <v>27548</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16976</v>
+        <v>18701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38534</v>
+        <v>40407</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06373688586247006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03927704801432481</v>
+        <v>0.04326782597990265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08915657622565652</v>
+        <v>0.09348991889787635</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>197568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187543</v>
+        <v>186949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204567</v>
+        <v>204098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9292142519307769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8820649053374593</v>
+        <v>0.8792713974734908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9621343540384303</v>
+        <v>0.9599297553687479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -3901,19 +3901,19 @@
         <v>207094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197243</v>
+        <v>197519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212716</v>
+        <v>212890</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9430881445903221</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8982295135435021</v>
+        <v>0.8994880254150381</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9686919105298111</v>
+        <v>0.9694840648813524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>384</v>
@@ -3922,19 +3922,19 @@
         <v>404661</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393675</v>
+        <v>391802</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415233</v>
+        <v>413508</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9362631141375299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9108434237743435</v>
+        <v>0.9065100811021235</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9607229519856748</v>
+        <v>0.9567321740200972</v>
       </c>
     </row>
     <row r="18">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5286</v>
+        <v>5304</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003857391635130551</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01929481935133218</v>
+        <v>0.01935856977170167</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4047,19 +4047,19 @@
         <v>3063</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8062</v>
+        <v>8387</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0109386033542864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003378590916370499</v>
+        <v>0.003373845825365871</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02878913492940569</v>
+        <v>0.02994853067969427</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -4068,19 +4068,19 @@
         <v>4120</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9271</v>
+        <v>10518</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007436662083157283</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001902171617483184</v>
+        <v>0.001904976602431238</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01673519547473266</v>
+        <v>0.01898558743012523</v>
       </c>
     </row>
     <row r="20">
@@ -4097,7 +4097,7 @@
         <v>272924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268695</v>
+        <v>268677</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4106,7 +4106,7 @@
         <v>0.9961426083648695</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9807051806486677</v>
+        <v>0.9806414302282983</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4118,19 +4118,19 @@
         <v>276968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>271969</v>
+        <v>271644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>279085</v>
+        <v>279086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9890613966457136</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9712108650705943</v>
+        <v>0.9700514693203055</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9966214090836295</v>
+        <v>0.9966261541746341</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -4139,19 +4139,19 @@
         <v>549892</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>544741</v>
+        <v>543494</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>552958</v>
+        <v>552957</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9925633379168427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9832648045252671</v>
+        <v>0.9810144125698754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9980978283825168</v>
+        <v>0.9980950233975688</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>7023</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2947</v>
+        <v>2848</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13838</v>
+        <v>14110</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01059616490005135</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004445684495816246</v>
+        <v>0.004296616118123386</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0208779986314844</v>
+        <v>0.02128866220580222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4264,19 +4264,19 @@
         <v>13383</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7356</v>
+        <v>7424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22523</v>
+        <v>24224</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01928764876953281</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01060119839436313</v>
+        <v>0.0106997209798382</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0324607759230412</v>
+        <v>0.03491247395390346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4285,19 +4285,19 @@
         <v>20406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11911</v>
+        <v>12666</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31402</v>
+        <v>31676</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01504141744549172</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008779499218415568</v>
+        <v>0.009336648455814176</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02314691331640067</v>
+        <v>0.02334901148907349</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>655765</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>648950</v>
+        <v>648678</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>659841</v>
+        <v>659940</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9894038350999487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9791220013685156</v>
+        <v>0.9787113377941977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9955543155041837</v>
+        <v>0.9957033838818766</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>624</v>
@@ -4335,19 +4335,19 @@
         <v>680470</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>671330</v>
+        <v>669629</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>686497</v>
+        <v>686429</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9807123512304672</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9675392240769588</v>
+        <v>0.9650875260460966</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9893988016056369</v>
+        <v>0.9893002790201618</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1235</v>
@@ -4356,19 +4356,19 @@
         <v>1336235</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1325239</v>
+        <v>1324965</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1344730</v>
+        <v>1343975</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9849585825545083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9768530866835993</v>
+        <v>0.9766509885109261</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9912205007815844</v>
+        <v>0.9906633515441858</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>7343</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3125</v>
+        <v>3199</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14792</v>
+        <v>15742</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009424705890151442</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004011626320349095</v>
+        <v>0.004106058934164417</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01898609937099406</v>
+        <v>0.02020539700172627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -4481,19 +4481,19 @@
         <v>11911</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6363</v>
+        <v>6516</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20618</v>
+        <v>20749</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01445763819068487</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007723085330556475</v>
+        <v>0.007909469441321031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02502586852003226</v>
+        <v>0.02518527461009641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -4502,19 +4502,19 @@
         <v>19254</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11950</v>
+        <v>11811</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30381</v>
+        <v>30993</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01201143229710337</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007454759399069665</v>
+        <v>0.007368523246974408</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01895305741371376</v>
+        <v>0.01933514976033047</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>771755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>764306</v>
+        <v>763356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775973</v>
+        <v>775899</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9905752941098486</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9810139006290061</v>
+        <v>0.9797946029982738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9959883736796509</v>
+        <v>0.9958939410658356</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>746</v>
@@ -4552,19 +4552,19 @@
         <v>811942</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>803235</v>
+        <v>803104</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>817490</v>
+        <v>817337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9855423618093151</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9749741314799678</v>
+        <v>0.9748147253899035</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9922769146694436</v>
+        <v>0.992090530558679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1456</v>
@@ -4573,19 +4573,19 @@
         <v>1583697</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1572570</v>
+        <v>1571958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1591001</v>
+        <v>1591140</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9879885677028967</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9810469425862863</v>
+        <v>0.9806648502396695</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9925452406009303</v>
+        <v>0.9926314767530255</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>57692</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43081</v>
+        <v>42723</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74954</v>
+        <v>74190</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01683560297391015</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0125718933395672</v>
+        <v>0.01246725238067391</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02187300770635209</v>
+        <v>0.02165003313676651</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>71</v>
@@ -4698,19 +4698,19 @@
         <v>77898</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>61021</v>
+        <v>60992</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97802</v>
+        <v>96095</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02189185900668097</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01714892008005007</v>
+        <v>0.01714078227121765</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02748566565721942</v>
+        <v>0.02700577716035648</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>123</v>
@@ -4719,19 +4719,19 @@
         <v>135590</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>111119</v>
+        <v>111703</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>157691</v>
+        <v>160544</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01941133601082412</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01590796817744232</v>
+        <v>0.01599169309993089</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02257536967603089</v>
+        <v>0.02298382892787317</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3369087</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3351825</v>
+        <v>3352589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3383698</v>
+        <v>3384056</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9831643970260898</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9781269922936482</v>
+        <v>0.9783499668632335</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9874281066604328</v>
+        <v>0.9875327476193262</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3227</v>
@@ -4769,19 +4769,19 @@
         <v>3480411</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3460507</v>
+        <v>3462214</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3497288</v>
+        <v>3497317</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.978108140993319</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9725143343427808</v>
+        <v>0.9729942228396435</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9828510799199501</v>
+        <v>0.9828592177287824</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6384</v>
@@ -4790,19 +4790,19 @@
         <v>6849498</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6827397</v>
+        <v>6824544</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6873969</v>
+        <v>6873385</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9805886639891759</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9774246303239692</v>
+        <v>0.9770161710721269</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9840920318225579</v>
+        <v>0.9840083069000691</v>
       </c>
     </row>
     <row r="30">
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7520</v>
+        <v>6947</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007411551101651728</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02560031464939526</v>
+        <v>0.02364842579080234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5159,19 +5159,19 @@
         <v>5754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2011</v>
+        <v>1969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12308</v>
+        <v>12608</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01992896316504061</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006967320393873323</v>
+        <v>0.006819171681643994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04263066872370769</v>
+        <v>0.04367069582641903</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -5180,19 +5180,19 @@
         <v>7931</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3814</v>
+        <v>3723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14611</v>
+        <v>14721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01361590778099606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006548717025433698</v>
+        <v>0.006392210055894614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02508425172506652</v>
+        <v>0.02527402606536709</v>
       </c>
     </row>
     <row r="5">
@@ -5209,7 +5209,7 @@
         <v>291584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286241</v>
+        <v>286814</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -5218,7 +5218,7 @@
         <v>0.9925884488983483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9743996853506055</v>
+        <v>0.9763515742091979</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5230,19 +5230,19 @@
         <v>282949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276395</v>
+        <v>276095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286692</v>
+        <v>286734</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9800710368349594</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9573693312762921</v>
+        <v>0.9563293041735809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9930326796061266</v>
+        <v>0.9931808283183559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>535</v>
@@ -5251,19 +5251,19 @@
         <v>574533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>567853</v>
+        <v>567743</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578650</v>
+        <v>578741</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9863840922190039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9749157482749333</v>
+        <v>0.9747259739346328</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9934512829745662</v>
+        <v>0.9936077899441054</v>
       </c>
     </row>
     <row r="6">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6569</v>
+        <v>6891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003953230122161542</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01307094938131898</v>
+        <v>0.01371069326692577</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7141</v>
+        <v>7447</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004116904225212304</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01365233475287452</v>
+        <v>0.01423706177496367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -5397,19 +5397,19 @@
         <v>4140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10207</v>
+        <v>10489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004036703551772367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0009922177348944783</v>
+        <v>0.0009939546648721133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009951654101392421</v>
+        <v>0.01022635876916523</v>
       </c>
     </row>
     <row r="8">
@@ -5426,7 +5426,7 @@
         <v>500588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496006</v>
+        <v>495684</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -5435,7 +5435,7 @@
         <v>0.9960467698778385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869290506186796</v>
+        <v>0.9862893067330739</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>520931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515943</v>
+        <v>515637</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>523084</v>
@@ -5456,7 +5456,7 @@
         <v>0.9958830957747877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9863476652471247</v>
+        <v>0.9857629382250361</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5468,19 +5468,19 @@
         <v>1021519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1015452</v>
+        <v>1015170</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1024641</v>
+        <v>1024640</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9959632964482277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9900483458986077</v>
+        <v>0.9897736412308349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9990077822651056</v>
+        <v>0.9990060453351278</v>
       </c>
     </row>
     <row r="9">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6410</v>
+        <v>9012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004990165379003869</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02012261767762325</v>
+        <v>0.02828961182442473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6339</v>
+        <v>6800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005361624193835049</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01884794733335748</v>
+        <v>0.02021897709310934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5614,19 +5614,19 @@
         <v>3393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9862</v>
+        <v>10418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005180927179556531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001373543996657775</v>
+        <v>0.001374027043846257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01505924128234623</v>
+        <v>0.01590829706274579</v>
       </c>
     </row>
     <row r="11">
@@ -5643,7 +5643,7 @@
         <v>316975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312155</v>
+        <v>309553</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5652,7 +5652,7 @@
         <v>0.9950098346209961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9798773823223768</v>
+        <v>0.9717103881755754</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>334506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329970</v>
+        <v>329509</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -5673,7 +5673,7 @@
         <v>0.994638375806165</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9811520526666425</v>
+        <v>0.9797810229068915</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5685,19 +5685,19 @@
         <v>651481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645012</v>
+        <v>644456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653975</v>
+        <v>653974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9948190728204435</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9849407587176537</v>
+        <v>0.9840917029372542</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986264560033422</v>
+        <v>0.9986259729561537</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>3745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10813</v>
+        <v>10485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01012350350136854</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00242286386321077</v>
+        <v>0.002427483009436536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02922806274171122</v>
+        <v>0.02834006664778353</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5810,19 +5810,19 @@
         <v>8708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4318</v>
+        <v>4141</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18723</v>
+        <v>18472</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02248560180235696</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01114944501151737</v>
+        <v>0.01069363927855235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04834365352342856</v>
+        <v>0.04769521990428071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -5831,19 +5831,19 @@
         <v>12454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6142</v>
+        <v>6325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22959</v>
+        <v>23607</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01644591948046743</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008111552790841454</v>
+        <v>0.008352228788857561</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03031923835247719</v>
+        <v>0.03117429140658053</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>366219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359151</v>
+        <v>359479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369068</v>
+        <v>369066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9898764964986314</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9707719372582886</v>
+        <v>0.9716599333522169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975771361367892</v>
+        <v>0.9975725169905635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -5881,19 +5881,19 @@
         <v>378575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>368560</v>
+        <v>368811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382965</v>
+        <v>383142</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9775143981976431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9516563464765715</v>
+        <v>0.9523047800957196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888505549884826</v>
+        <v>0.9893063607214477</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>702</v>
@@ -5902,19 +5902,19 @@
         <v>744793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>734288</v>
+        <v>733640</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>751105</v>
+        <v>750922</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9835540805195325</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9696807616475229</v>
+        <v>0.9688257085934198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918884472091585</v>
+        <v>0.9916477712111426</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5922</v>
+        <v>6621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008264753896449314</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02803724988549988</v>
+        <v>0.03134706821975905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6234</v>
+        <v>6171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004061556731012941</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01450312797484158</v>
+        <v>0.01435866341267514</v>
       </c>
     </row>
     <row r="17">
@@ -6069,7 +6069,7 @@
         <v>209475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205299</v>
+        <v>204600</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -6078,7 +6078,7 @@
         <v>0.9917352461035507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9719627501145001</v>
+        <v>0.9686529317802431</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6103,7 +6103,7 @@
         <v>428062</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423574</v>
+        <v>423637</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429808</v>
@@ -6112,7 +6112,7 @@
         <v>0.9959384432689871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9854968720251582</v>
+        <v>0.9856413365873248</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6207,19 +6207,19 @@
         <v>6671</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2821</v>
+        <v>2634</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14509</v>
+        <v>13408</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02535187876712256</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0107202115609635</v>
+        <v>0.01001021323596777</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05514173062140949</v>
+        <v>0.05095804375091115</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6228,19 +6228,19 @@
         <v>3809</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9327</v>
+        <v>9852</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01394561976229682</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003454923014268248</v>
+        <v>0.003524672008913197</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03414965270383283</v>
+        <v>0.03607422205482547</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -6249,19 +6249,19 @@
         <v>10479</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4878</v>
+        <v>5550</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18954</v>
+        <v>18811</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01954247988957507</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00909693829490118</v>
+        <v>0.01034903929766215</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03534703904428127</v>
+        <v>0.0350794771169929</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>256452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248614</v>
+        <v>249715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260302</v>
+        <v>260489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9746481212328775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9448582693785905</v>
+        <v>0.9490419562490888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9892797884390365</v>
+        <v>0.9899897867640323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -6299,19 +6299,19 @@
         <v>269306</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>263788</v>
+        <v>263263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272171</v>
+        <v>272152</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9860543802377032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9658503472961673</v>
+        <v>0.9639257779451762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9965450769857318</v>
+        <v>0.9964753279910868</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>512</v>
@@ -6320,19 +6320,19 @@
         <v>525759</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>517284</v>
+        <v>517427</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531360</v>
+        <v>530688</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.980457520110425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9646529609557194</v>
+        <v>0.9649205228830077</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9909030617050989</v>
+        <v>0.9896509607023378</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>9494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4427</v>
+        <v>4309</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19040</v>
+        <v>19070</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01445999521376046</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006742167189896996</v>
+        <v>0.006563699036901329</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02899993987375698</v>
+        <v>0.02904544588365917</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6445,19 +6445,19 @@
         <v>8954</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3778</v>
+        <v>4432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17131</v>
+        <v>17691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01295247738096986</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005465501331310589</v>
+        <v>0.006411789819144049</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02478090704503155</v>
+        <v>0.02559162936547247</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6466,19 +6466,19 @@
         <v>18448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10728</v>
+        <v>10813</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29538</v>
+        <v>29654</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01368681089136403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007959360344522029</v>
+        <v>0.008022513015631831</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02191513037568515</v>
+        <v>0.02200112903078888</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>647064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637518</v>
+        <v>637488</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>652131</v>
+        <v>652249</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9855400047862395</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9710000601262428</v>
+        <v>0.9709545541163408</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.993257832810103</v>
+        <v>0.9934363009630987</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>638</v>
@@ -6516,19 +6516,19 @@
         <v>682340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>674163</v>
+        <v>673603</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>687516</v>
+        <v>686862</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9870475226190302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9752190929549683</v>
+        <v>0.9744083706345275</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9945344986686894</v>
+        <v>0.9935882101808559</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1210</v>
@@ -6537,19 +6537,19 @@
         <v>1329404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1318314</v>
+        <v>1318198</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1337124</v>
+        <v>1337039</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.986313189108636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9780848696243151</v>
+        <v>0.9779988709692122</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9920406396554782</v>
+        <v>0.9919774869843684</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>7043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2720</v>
+        <v>2692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14436</v>
+        <v>14306</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009045665136695977</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003493617221979469</v>
+        <v>0.003458151963184703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01854194063757944</v>
+        <v>0.01837376385363571</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -6662,19 +6662,19 @@
         <v>6541</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2316</v>
+        <v>2747</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14349</v>
+        <v>14601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007916689776534995</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002803157698974947</v>
+        <v>0.003325321229887635</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01736766083043022</v>
+        <v>0.01767290925434617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -6683,19 +6683,19 @@
         <v>13583</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7084</v>
+        <v>6899</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23851</v>
+        <v>22876</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008464439282616715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004414537305517806</v>
+        <v>0.00429899449019541</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01486292624080842</v>
+        <v>0.01425502319889791</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>771540</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>764147</v>
+        <v>764277</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775863</v>
+        <v>775891</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.990954334863304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9814580593624197</v>
+        <v>0.9816262361463639</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9965063827780205</v>
+        <v>0.9965418480368153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>749</v>
@@ -6733,19 +6733,19 @@
         <v>819626</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>811818</v>
+        <v>811566</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>823851</v>
+        <v>823420</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.992083310223465</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9826323391695699</v>
+        <v>0.9823270907456538</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9971968423010251</v>
+        <v>0.9966746787701124</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1493</v>
@@ -6754,19 +6754,19 @@
         <v>1591167</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1580899</v>
+        <v>1581874</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1597666</v>
+        <v>1597851</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9915355607173832</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9851370737591915</v>
+        <v>0.9857449768011022</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.995585462694482</v>
+        <v>0.9957010055098047</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>34452</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23754</v>
+        <v>23513</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50363</v>
+        <v>46996</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01014981351233429</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006997990975262458</v>
+        <v>0.00692705366627222</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01483742541476609</v>
+        <v>0.01384535907345087</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -6879,19 +6879,19 @@
         <v>37722</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25996</v>
+        <v>26634</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51595</v>
+        <v>52318</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01064220077667661</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007334009598550106</v>
+        <v>0.007514045091118662</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01455612697937936</v>
+        <v>0.01476010044607623</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -6900,19 +6900,19 @@
         <v>72174</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>56262</v>
+        <v>57494</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93267</v>
+        <v>92270</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0104013359819414</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008108270407287193</v>
+        <v>0.008285745208464814</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01344116120552604</v>
+        <v>0.01329757760866854</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>3359898</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3343987</v>
+        <v>3347354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3370596</v>
+        <v>3370837</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9898501864876658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9851625745852339</v>
+        <v>0.9861546409265493</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9930020090247378</v>
+        <v>0.9930729463337278</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3303</v>
@@ -6950,19 +6950,19 @@
         <v>3506820</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3492947</v>
+        <v>3492224</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3518546</v>
+        <v>3517908</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9893577992233233</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9854438730206208</v>
+        <v>0.9852398995539238</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.99266599040145</v>
+        <v>0.9924859549088814</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6504</v>
@@ -6971,19 +6971,19 @@
         <v>6866718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6845625</v>
+        <v>6846622</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6882630</v>
+        <v>6881398</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9895986640180586</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9865588387944739</v>
+        <v>0.9867024223913314</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9918917295927128</v>
+        <v>0.9917142547915352</v>
       </c>
     </row>
     <row r="30">
@@ -7322,16 +7322,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8198</v>
+        <v>6638</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.006583606402232003</v>
+        <v>0.006583606402232005</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02571225413392726</v>
+        <v>0.02081823981040932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -7340,19 +7340,19 @@
         <v>5520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2768</v>
+        <v>2887</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10036</v>
+        <v>9930</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01746399061423575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008757082311418342</v>
+        <v>0.009134499383827068</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03175488337000968</v>
+        <v>0.03141913227933727</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -7361,19 +7361,19 @@
         <v>7619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4160</v>
+        <v>4106</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14085</v>
+        <v>13129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01199993833345821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006551958342185085</v>
+        <v>0.006466537004332455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02218362983022815</v>
+        <v>0.02067828953005747</v>
       </c>
     </row>
     <row r="5">
@@ -7390,16 +7390,16 @@
         <v>316746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310647</v>
+        <v>312207</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.993416393597768</v>
+        <v>0.9934163935977681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9742877458660726</v>
+        <v>0.9791817601895916</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7411,19 +7411,19 @@
         <v>310541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306025</v>
+        <v>306131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313293</v>
+        <v>313174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9825360093857642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9682451166299905</v>
+        <v>0.9685808677206634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9912429176885816</v>
+        <v>0.9908655006161733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>857</v>
@@ -7432,19 +7432,19 @@
         <v>627287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>620821</v>
+        <v>621777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630746</v>
+        <v>630800</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9880000616665419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9778163701697714</v>
+        <v>0.9793217104699425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9934480416578149</v>
+        <v>0.9935334629956675</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>26005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16883</v>
+        <v>17137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38446</v>
+        <v>37438</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0490056311634047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03181532384464686</v>
+        <v>0.03229506487603684</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07245109867914333</v>
+        <v>0.07055147890392133</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -7557,19 +7557,19 @@
         <v>31504</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23365</v>
+        <v>22581</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41942</v>
+        <v>41977</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05764792915090699</v>
+        <v>0.057647929150907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04275492396004515</v>
+        <v>0.04132012978030979</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07674756168696338</v>
+        <v>0.07681065811312483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -7578,19 +7578,19 @@
         <v>57509</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45039</v>
+        <v>45544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73577</v>
+        <v>72809</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05339035465221858</v>
+        <v>0.05339035465221859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04181365869088467</v>
+        <v>0.04228264194126978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06830757825258031</v>
+        <v>0.06759452723082385</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>504642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>492201</v>
+        <v>493209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>513764</v>
+        <v>513510</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9509943688365953</v>
+        <v>0.9509943688365952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9275489013208568</v>
+        <v>0.9294485210960789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9681846761553534</v>
+        <v>0.9677049351239633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>669</v>
@@ -7628,19 +7628,19 @@
         <v>514990</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>504552</v>
+        <v>504517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>523129</v>
+        <v>523913</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9423520708490929</v>
+        <v>0.9423520708490928</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9232524383130368</v>
+        <v>0.9231893418868755</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9572450760399549</v>
+        <v>0.9586798702196903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1027</v>
@@ -7649,19 +7649,19 @@
         <v>1019632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1003564</v>
+        <v>1004332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1032102</v>
+        <v>1031597</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9466096453477815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9316924217474197</v>
+        <v>0.932405472769176</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9581863413091152</v>
+        <v>0.9577173580587299</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>7213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3650</v>
+        <v>3452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13170</v>
+        <v>13545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02282505377949016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01155172221070467</v>
+        <v>0.0109256923129059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04167928732826075</v>
+        <v>0.0428651035905148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -7774,19 +7774,19 @@
         <v>4827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2263</v>
+        <v>2333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8694</v>
+        <v>8962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01354583480882586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006351094297603315</v>
+        <v>0.006545945021147915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02439574389251588</v>
+        <v>0.02514756273255316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -7795,19 +7795,19 @@
         <v>12040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7214</v>
+        <v>7135</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20177</v>
+        <v>19340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01790675427191256</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0107286188662454</v>
+        <v>0.01061147097978317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03000790483232969</v>
+        <v>0.02876301890799923</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>308780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302823</v>
+        <v>302448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312343</v>
+        <v>312541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9771749462205099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9583207126717395</v>
+        <v>0.9571348964094851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9884482777892953</v>
+        <v>0.9890743076870941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -7845,19 +7845,19 @@
         <v>351554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>347687</v>
+        <v>347419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354118</v>
+        <v>354048</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9864541651911741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9756042561074854</v>
+        <v>0.974852437267447</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9936489057023968</v>
+        <v>0.993454054978852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>878</v>
@@ -7866,19 +7866,19 @@
         <v>660335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>652198</v>
+        <v>653035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>665161</v>
+        <v>665240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9820932457280874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9699920951676702</v>
+        <v>0.9712369810920007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9892713811337546</v>
+        <v>0.9893885290202169</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>8477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3097</v>
+        <v>3378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19775</v>
+        <v>18869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02271704344612984</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0083006636846862</v>
+        <v>0.009052584217128987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05299426323935199</v>
+        <v>0.05056852872639168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -7991,19 +7991,19 @@
         <v>7985</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3799</v>
+        <v>3862</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19110</v>
+        <v>18710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01892427913621161</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009003031348389173</v>
+        <v>0.009153210655771534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04528761288629227</v>
+        <v>0.04434064249333007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -8012,19 +8012,19 @@
         <v>16462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8987</v>
+        <v>8770</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31018</v>
+        <v>31850</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02070423145523118</v>
+        <v>0.02070423145523117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01130300431344684</v>
+        <v>0.01102991182212742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03901149244200618</v>
+        <v>0.04005720699484069</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>364668</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353370</v>
+        <v>354276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370048</v>
+        <v>369767</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9772829565538703</v>
+        <v>0.9772829565538701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9470057367606483</v>
+        <v>0.9494314712736076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.991699336315314</v>
+        <v>0.9909474157828709</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>589</v>
@@ -8062,19 +8062,19 @@
         <v>413976</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>402851</v>
+        <v>403251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418162</v>
+        <v>418099</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9810757208637884</v>
+        <v>0.9810757208637887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.954712387113707</v>
+        <v>0.9556593575066701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9909969686516106</v>
+        <v>0.9908467893442285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>874</v>
@@ -8083,19 +8083,19 @@
         <v>778645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>764089</v>
+        <v>763257</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>786120</v>
+        <v>786337</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9792957685447686</v>
+        <v>0.9792957685447689</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9609885075579938</v>
+        <v>0.9599427930051593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9886969956865532</v>
+        <v>0.9889700881778725</v>
       </c>
     </row>
     <row r="15">
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4444</v>
+        <v>3757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006093009734042487</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0216097357929353</v>
+        <v>0.01826813990992194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -8208,19 +8208,19 @@
         <v>5673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2933</v>
+        <v>3132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9443</v>
+        <v>9999</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02477989391084024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01281342636690027</v>
+        <v>0.01368149244151451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04125247923360985</v>
+        <v>0.04367996057300165</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -8229,19 +8229,19 @@
         <v>6926</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4201</v>
+        <v>3756</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11995</v>
+        <v>11332</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01593638439876477</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009665816177279362</v>
+        <v>0.008642467619976125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0276007106946558</v>
+        <v>0.02607636987901251</v>
       </c>
     </row>
     <row r="17">
@@ -8258,16 +8258,16 @@
         <v>204412</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201221</v>
+        <v>201908</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9939069902659573</v>
+        <v>0.9939069902659576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9783902642070654</v>
+        <v>0.9817318600900781</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8279,19 +8279,19 @@
         <v>223245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>219475</v>
+        <v>218919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225985</v>
+        <v>225786</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9752201060891599</v>
+        <v>0.9752201060891598</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9587475207663901</v>
+        <v>0.9563200394269967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9871865736330997</v>
+        <v>0.9863185075584855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>759</v>
@@ -8300,19 +8300,19 @@
         <v>427656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422587</v>
+        <v>423250</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>430381</v>
+        <v>430826</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9840636156012353</v>
+        <v>0.9840636156012352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9723992893053441</v>
+        <v>0.9739236301209875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9903341838227203</v>
+        <v>0.9913575323800239</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>7947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4436</v>
+        <v>3955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14390</v>
+        <v>13901</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.029355761463826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01638802890723538</v>
+        <v>0.01461063510493895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05315777424213371</v>
+        <v>0.05135060732785949</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -8425,19 +8425,19 @@
         <v>10801</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6510</v>
+        <v>6790</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16840</v>
+        <v>17151</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04095301918356651</v>
+        <v>0.0409530191835665</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02468254686158044</v>
+        <v>0.02574410654926586</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06384975218316681</v>
+        <v>0.06502657230197502</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -8446,19 +8446,19 @@
         <v>18748</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12541</v>
+        <v>12566</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26621</v>
+        <v>26009</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03507891329260388</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02346555978444919</v>
+        <v>0.02351168756762624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04980863120094881</v>
+        <v>0.0486640361217419</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>262760</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256317</v>
+        <v>256806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266271</v>
+        <v>266752</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9706442385361739</v>
+        <v>0.9706442385361741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9468422257578657</v>
+        <v>0.9486493926721404</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9836119710927639</v>
+        <v>0.9853893648950608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>441</v>
@@ -8496,19 +8496,19 @@
         <v>252949</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246910</v>
+        <v>246599</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257240</v>
+        <v>256960</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9590469808164338</v>
+        <v>0.9590469808164334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9361502478168332</v>
+        <v>0.9349734276980245</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9753174531384194</v>
+        <v>0.9742558934507342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>800</v>
@@ -8517,19 +8517,19 @@
         <v>515709</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>507836</v>
+        <v>508448</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521916</v>
+        <v>521891</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9649210867073961</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9501913687990512</v>
+        <v>0.951335963878258</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9765344402155509</v>
+        <v>0.9764883124323737</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>29837</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20514</v>
+        <v>18879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44015</v>
+        <v>43177</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04145898282777826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02850442010670588</v>
+        <v>0.02623224660415348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06115888166887622</v>
+        <v>0.05999440659607133</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -8642,19 +8642,19 @@
         <v>48614</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37783</v>
+        <v>36935</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62852</v>
+        <v>61103</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06296707403746976</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04893820472270758</v>
+        <v>0.04783984090241925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08140842890674131</v>
+        <v>0.07914328932031661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -8663,19 +8663,19 @@
         <v>78452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63205</v>
+        <v>62270</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98168</v>
+        <v>96799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05259056403568749</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04237000551179033</v>
+        <v>0.04174298889586413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06580727161622277</v>
+        <v>0.06488986194997579</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>689850</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>675672</v>
+        <v>676510</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>699173</v>
+        <v>700808</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9585410171722217</v>
+        <v>0.958541017172222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9388411183311237</v>
+        <v>0.9400055934039289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.971495579893294</v>
+        <v>0.9737677533958465</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>896</v>
@@ -8713,19 +8713,19 @@
         <v>723443</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>709205</v>
+        <v>710954</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>734274</v>
+        <v>735122</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9370329259625301</v>
+        <v>0.9370329259625302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9185915710932587</v>
+        <v>0.9208567106796829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9510617952772924</v>
+        <v>0.9521601590975806</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1469</v>
@@ -8734,19 +8734,19 @@
         <v>1413292</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1393576</v>
+        <v>1394945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1428539</v>
+        <v>1429474</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9474094359643125</v>
+        <v>0.9474094359643127</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9341927283837769</v>
+        <v>0.9351101380500242</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9576299944882093</v>
+        <v>0.9582570111041357</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>5174</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1213</v>
+        <v>1145</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13465</v>
+        <v>12536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006483012142415335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00152001358072018</v>
+        <v>0.001435160219227965</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01687232729028304</v>
+        <v>0.01570759997678142</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -8859,19 +8859,19 @@
         <v>5761</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2879</v>
+        <v>2536</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11011</v>
+        <v>10905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006929416658076845</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003463307322305819</v>
+        <v>0.003050869352313113</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01324542112192807</v>
+        <v>0.01311754408835687</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -8880,19 +8880,19 @@
         <v>10935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5928</v>
+        <v>5682</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19624</v>
+        <v>19102</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006710770428357857</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003638185758372104</v>
+        <v>0.003487012190321935</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0120434204982361</v>
+        <v>0.01172315664372712</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>792898</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>784607</v>
+        <v>785536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>796859</v>
+        <v>796927</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9935169878575847</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.983127672709717</v>
+        <v>0.9842924000232186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9984799864192798</v>
+        <v>0.998564839780772</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1053</v>
@@ -8930,19 +8930,19 @@
         <v>825570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>820320</v>
+        <v>820426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>828452</v>
+        <v>828795</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9930705833419233</v>
+        <v>0.9930705833419232</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9867545788780724</v>
+        <v>0.9868824559116434</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9965366926776944</v>
+        <v>0.9969491306476869</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1811</v>
@@ -8951,19 +8951,19 @@
         <v>1618468</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1609779</v>
+        <v>1610301</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1623475</v>
+        <v>1623721</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9932892295716422</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9879565795017636</v>
+        <v>0.9882768433562726</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9963618142416281</v>
+        <v>0.9965129878096779</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>88005</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>69604</v>
+        <v>70157</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>108360</v>
+        <v>108918</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02491096301966643</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01970235592698141</v>
+        <v>0.01985882504106729</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03067287424342505</v>
+        <v>0.03083081296748346</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>182</v>
@@ -9076,19 +9076,19 @@
         <v>120685</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>102202</v>
+        <v>103520</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>139379</v>
+        <v>142315</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0322951453435766</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02734904724586738</v>
+        <v>0.02770159604796114</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03729762010274063</v>
+        <v>0.03808307080016007</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>268</v>
@@ -9097,19 +9097,19 @@
         <v>208690</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>183553</v>
+        <v>183404</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>238189</v>
+        <v>237132</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02870675787825546</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02524895842692105</v>
+        <v>0.02522849162191677</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03276450335864829</v>
+        <v>0.03261909199049699</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>3444757</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3424402</v>
+        <v>3423844</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3463158</v>
+        <v>3462605</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9750890369803338</v>
+        <v>0.9750890369803336</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9693271257565752</v>
+        <v>0.9691691870325166</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9802976440730187</v>
+        <v>0.9801411749589329</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5185</v>
@@ -9147,19 +9147,19 @@
         <v>3616269</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3597575</v>
+        <v>3594639</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3634752</v>
+        <v>3633434</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9677048546564235</v>
+        <v>0.9677048546564233</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9627023798972592</v>
+        <v>0.96191692919984</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9726509527541323</v>
+        <v>0.9722984039520387</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8475</v>
@@ -9168,19 +9168,19 @@
         <v>7061026</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7031527</v>
+        <v>7032584</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7086163</v>
+        <v>7086312</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9712932421217446</v>
+        <v>0.9712932421217445</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9672354966413519</v>
+        <v>0.9673809080095029</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9747510415730789</v>
+        <v>0.9747715083780835</v>
       </c>
     </row>
     <row r="30">
